--- a/XLSX transformados/Jornada 3 - Local vs Universitario de Deportes_posicion_jugadores.xlsx
+++ b/XLSX transformados/Jornada 3 - Local vs Universitario de Deportes_posicion_jugadores.xlsx
@@ -525,7 +525,7 @@
         <v>29</v>
       </c>
       <c r="F2" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G2" t="n">
         <v>1006509</v>
@@ -572,7 +572,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G3" t="n">
         <v>876927</v>
@@ -619,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G4" t="n">
         <v>973682</v>
@@ -666,7 +666,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G5" t="n">
         <v>874985</v>
@@ -713,7 +713,7 @@
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="G6" t="n">
         <v>31175</v>
@@ -760,7 +760,7 @@
         <v>27</v>
       </c>
       <c r="F7" t="n">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G7" t="n">
         <v>1415942</v>
@@ -811,7 +811,7 @@
         <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="n">
         <v>973547</v>
@@ -858,7 +858,7 @@
         <v>30</v>
       </c>
       <c r="F9" t="n">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="G9" t="n">
         <v>159931</v>
@@ -905,7 +905,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G10" t="n">
         <v>1017760</v>
@@ -952,7 +952,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="G11" t="n">
         <v>973650</v>
@@ -999,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G12" t="n">
         <v>962187</v>
@@ -1093,7 +1093,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="G14" t="n">
         <v>590312</v>
@@ -1140,7 +1140,7 @@
         <v>26</v>
       </c>
       <c r="F15" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G15" t="n">
         <v>981374</v>
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G16" t="n">
         <v>789372</v>
@@ -1234,7 +1234,7 @@
         <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G17" t="n">
         <v>47418</v>

--- a/XLSX transformados/Jornada 3 - Local vs Universitario de Deportes_posicion_jugadores.xlsx
+++ b/XLSX transformados/Jornada 3 - Local vs Universitario de Deportes_posicion_jugadores.xlsx
@@ -503,43 +503,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jiovany Ramos</t>
+          <t>Aldair Fuentes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ramos-jiovany</t>
+          <t>aldair-fuentes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>J. Ramos</t>
+          <t>A. Fuentes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="G2" t="n">
-        <v>1006509</v>
+        <v>876927</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>40.863636363636</v>
+        <v>32.513333333333</v>
       </c>
       <c r="K2" t="n">
-        <v>20.743636363636</v>
+        <v>60.211111111111</v>
       </c>
       <c r="L2" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -550,43 +550,43 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Aldair Fuentes</t>
+          <t>Jiovany Ramos</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>aldair-fuentes</t>
+          <t>ramos-jiovany</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A. Fuentes</t>
+          <t>J. Ramos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F3" t="n">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="G3" t="n">
-        <v>876927</v>
+        <v>1006509</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>32.513333333333</v>
+        <v>40.863636363636</v>
       </c>
       <c r="K3" t="n">
-        <v>60.211111111111</v>
+        <v>20.743636363636</v>
       </c>
       <c r="L3" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G4" t="n">
         <v>973682</v>
@@ -713,7 +713,7 @@
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="G6" t="n">
         <v>31175</v>
@@ -760,7 +760,7 @@
         <v>27</v>
       </c>
       <c r="F7" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G7" t="n">
         <v>1415942</v>
@@ -811,7 +811,7 @@
         <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G8" t="n">
         <v>973547</v>
@@ -858,7 +858,7 @@
         <v>30</v>
       </c>
       <c r="F9" t="n">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G9" t="n">
         <v>159931</v>
@@ -905,7 +905,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G10" t="n">
         <v>1017760</v>
@@ -952,7 +952,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G11" t="n">
         <v>973650</v>
@@ -977,43 +977,43 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Juan Freytes</t>
+          <t>Kevin Serna</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>juan-freytes</t>
+          <t>serna-kevin</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>J. Freytes</t>
+          <t>K. Serna</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F12" t="n">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="G12" t="n">
-        <v>962187</v>
+        <v>981374</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>42.612173913043</v>
+        <v>62.135555555556</v>
       </c>
       <c r="K12" t="n">
-        <v>82.96869565217401</v>
+        <v>16.653333333333</v>
       </c>
       <c r="L12" t="n">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1024,17 +1024,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Marco Huaman</t>
+          <t>Juan Freytes</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>marco-huaman</t>
+          <t>juan-freytes</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>M. Huaman</t>
+          <t>J. Freytes</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1043,24 +1043,24 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G13" t="n">
-        <v>1090720</v>
+        <v>962187</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>40.907142857143</v>
+        <v>42.612173913043</v>
       </c>
       <c r="K13" t="n">
-        <v>27.721428571429</v>
+        <v>82.96869565217401</v>
       </c>
       <c r="L13" t="n">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1071,43 +1071,43 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Gabriel Costa</t>
+          <t>Marco Huaman</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>gabriel-costa</t>
+          <t>marco-huaman</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>G. Costa</t>
+          <t>M. Huaman</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
-        <v>585</v>
+        <v>44</v>
       </c>
       <c r="G14" t="n">
-        <v>590312</v>
+        <v>1090720</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>61.109302325581</v>
+        <v>40.907142857143</v>
       </c>
       <c r="K14" t="n">
-        <v>52.444186046512</v>
+        <v>27.721428571429</v>
       </c>
       <c r="L14" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1118,17 +1118,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kevin Serna</t>
+          <t>Gabriel Costa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>serna-kevin</t>
+          <t>gabriel-costa</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>K. Serna</t>
+          <t>G. Costa</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1137,24 +1137,24 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="G15" t="n">
-        <v>981374</v>
+        <v>590312</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>62.135555555556</v>
+        <v>61.109302325581</v>
       </c>
       <c r="K15" t="n">
-        <v>16.653333333333</v>
+        <v>52.444186046512</v>
       </c>
       <c r="L15" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" t="n">
         <v>789372</v>
